--- a/data/gwl_lists/GWLs_CMIP6_all_models.xlsx
+++ b/data/gwl_lists/GWLs_CMIP6_all_models.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbecsi/Desktop/Arbeit/Qgis/data/AAR2/GWLs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8013DEA8-6EFC-2E4D-8D5B-0E8972B934D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BA5970-F41F-2247-A978-B44249A4CB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22120" xr2:uid="{3205E47B-5EE3-6F45-A00E-09C2AA1423A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="283">
   <si>
     <t>Model</t>
   </si>
@@ -876,14 +876,24 @@
   </si>
   <si>
     <t>AUT GCM CCS 1991-2020</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>CCS AUT ÖKS15</t>
+  </si>
+  <si>
+    <t>scaling factor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -894,7 +904,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -904,6 +914,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,13 +951,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1256,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F9DC50-1FA6-9742-A3C1-03E3125ABA8C}">
-  <dimension ref="A1:M191"/>
+  <dimension ref="A1:U191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1269,9 +1287,10 @@
     <col min="6" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1293,8 +1312,20 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1334,8 +1365,32 @@
       <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1343,8 +1398,40 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="2">
+        <f>MEDIAN(J3:J191)</f>
+        <v>0.96126850786044993</v>
+      </c>
+      <c r="O3" s="2">
+        <f>MEDIAN(K3:K191)</f>
+        <v>1.52994821396307</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" ref="O3:Q3" si="0">MEDIAN(L3:L191)</f>
+        <v>2.7216420221708799</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7988917949737599</v>
+      </c>
+      <c r="R3" s="2">
+        <f>N3*$U$17</f>
+        <v>0.85554435229192627</v>
+      </c>
+      <c r="S3" s="2">
+        <f>O3*$U$17</f>
+        <v>1.3616783895985558</v>
+      </c>
+      <c r="T3" s="2">
+        <f>P3*$U$17</f>
+        <v>2.4223049460044379</v>
+      </c>
+      <c r="U3" s="2">
+        <f>Q3*$U$17</f>
+        <v>3.381074479795366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1361,7 +1448,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1386,7 +1473,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1403,7 +1490,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1428,7 +1515,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1437,7 +1524,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1446,7 +1533,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1471,7 +1558,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1480,7 +1567,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1489,7 +1576,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1498,7 +1585,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1515,7 +1602,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1540,7 +1627,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1564,8 +1651,11 @@
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="U16" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1589,8 +1679,11 @@
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="U17" s="4">
+        <v>0.89001600000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1615,7 +1708,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1632,7 +1725,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1641,7 +1734,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1666,7 +1759,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1691,7 +1784,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1716,7 +1809,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1741,7 +1834,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1766,7 +1859,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1791,7 +1884,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1816,7 +1909,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1833,7 +1926,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1858,7 +1951,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1883,7 +1976,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1900,7 +1993,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -7013,10 +7106,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/gwl_lists/GWLs_CMIP6_all_models.xlsx
+++ b/data/gwl_lists/GWLs_CMIP6_all_models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbecsi/Desktop/Arbeit/Qgis/data/AAR2/GWLs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BA5970-F41F-2247-A978-B44249A4CB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404C8E6A-38AE-7148-B9DA-49461FFA9B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22120" xr2:uid="{3205E47B-5EE3-6F45-A00E-09C2AA1423A5}"/>
   </bookViews>
@@ -893,7 +893,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -955,11 +955,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1277,7 +1277,7 @@
   <dimension ref="A1:U191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="N4" sqref="N4:U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1294,36 +1294,36 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1407,7 +1407,7 @@
         <v>1.52994821396307</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" ref="O3:Q3" si="0">MEDIAN(L3:L191)</f>
+        <f t="shared" ref="P3:Q3" si="0">MEDIAN(L3:L191)</f>
         <v>2.7216420221708799</v>
       </c>
       <c r="Q3" s="2">
@@ -1447,6 +1447,38 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
+      <c r="N4" s="2">
+        <f>_xlfn.PERCENTILE.INC(J3:J191, 0.1)</f>
+        <v>0.32229408933509096</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" ref="O4:Q4" si="1">_xlfn.PERCENTILE.INC(K3:K191, 0.1)</f>
+        <v>0.9331958731947555</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0692862007691661</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" si="1"/>
+        <v>3.339906805131224</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" ref="R4:R5" si="2">N4*$U$17</f>
+        <v>0.28684689621366033</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" ref="S4:S5" si="3">O4*$U$17</f>
+        <v>0.83055925827730359</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" ref="T4:T5" si="4">P4*$U$17</f>
+        <v>1.8416978272637703</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" ref="U4:U5" si="5">Q4*$U$17</f>
+        <v>2.9725704950756717</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1472,6 +1504,38 @@
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
+      <c r="N5" s="2">
+        <f>_xlfn.PERCENTILE.INC(J3:J191, 0.9)</f>
+        <v>1.4295632300740222</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" ref="O5:Q5" si="6">_xlfn.PERCENTILE.INC(K3:K191, 0.9)</f>
+        <v>2.128270183220097</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="6"/>
+        <v>3.3195415867181501</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="6"/>
+        <v>4.4747244824800871</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2723341477775609</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" si="3"/>
+        <v>1.894194515388818</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" si="4"/>
+        <v>2.9544451248445411</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" si="5"/>
+        <v>3.9825763849989975</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1651,7 +1715,7 @@
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="U16" s="5" t="s">
+      <c r="U16" s="4" t="s">
         <v>282</v>
       </c>
     </row>
@@ -1679,7 +1743,7 @@
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="U17" s="4">
+      <c r="U17" s="3">
         <v>0.89001600000000003</v>
       </c>
     </row>

--- a/data/gwl_lists/GWLs_CMIP6_all_models.xlsx
+++ b/data/gwl_lists/GWLs_CMIP6_all_models.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbecsi/Desktop/Arbeit/Qgis/data/AAR2/GWLs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404C8E6A-38AE-7148-B9DA-49461FFA9B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC946EC-AD2A-A04A-BF59-2938A5AC6274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22120" xr2:uid="{3205E47B-5EE3-6F45-A00E-09C2AA1423A5}"/>
   </bookViews>
@@ -1277,7 +1277,7 @@
   <dimension ref="A1:U191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:U5"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1521,19 +1521,19 @@
         <v>4.4747244824800871</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" si="2"/>
+        <f>N5*$U$17</f>
         <v>1.2723341477775609</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" si="3"/>
+        <f>O5*$U$17</f>
         <v>1.894194515388818</v>
       </c>
       <c r="T5" s="2">
-        <f t="shared" si="4"/>
+        <f>P5*$U$17</f>
         <v>2.9544451248445411</v>
       </c>
       <c r="U5" s="2">
-        <f t="shared" si="5"/>
+        <f>Q5*$U$17</f>
         <v>3.9825763849989975</v>
       </c>
     </row>
@@ -1553,6 +1553,38 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
+      <c r="N6" s="2">
+        <f>_xlfn.PERCENTILE.INC(J3:J191, 0.25)</f>
+        <v>0.650511894653102</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" ref="O6:Q6" si="7">_xlfn.PERCENTILE.INC(K3:K191, 0.25)</f>
+        <v>1.23309999212458</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="7"/>
+        <v>2.3296342000000001</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="7"/>
+        <v>3.4992920851221698</v>
+      </c>
+      <c r="R6" s="2">
+        <f>N6*$U$17</f>
+        <v>0.57896599443157526</v>
+      </c>
+      <c r="S6" s="2">
+        <f>O6*$U$17</f>
+        <v>1.0974787225907503</v>
+      </c>
+      <c r="T6" s="2">
+        <f>P6*$U$17</f>
+        <v>2.0734117121472</v>
+      </c>
+      <c r="U6" s="2">
+        <f>Q6*$U$17</f>
+        <v>3.1144259444320932</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1578,6 +1610,38 @@
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
+      <c r="N7" s="2">
+        <f>_xlfn.PERCENTILE.INC(J3:J191, 0.75)</f>
+        <v>1.2062551718251875</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" ref="O7:Q7" si="8">_xlfn.PERCENTILE.INC(K3:K191, 0.75)</f>
+        <v>1.8732566085376101</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="8"/>
+        <v>3.0094896104601001</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="8"/>
+        <v>4.3168788534222227</v>
+      </c>
+      <c r="R7" s="2">
+        <f>N7*$U$17</f>
+        <v>1.073586403007166</v>
+      </c>
+      <c r="S7" s="2">
+        <f>O7*$U$17</f>
+        <v>1.6672283537042096</v>
+      </c>
+      <c r="T7" s="2">
+        <f>P7*$U$17</f>
+        <v>2.6784939051432564</v>
+      </c>
+      <c r="U7" s="2">
+        <f>Q7*$U$17</f>
+        <v>3.8420912496074329</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
